--- a/Documentations/bayad 1.xlsx
+++ b/Documentations/bayad 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\school\2ndyr\1stsem\emag\generotr\Documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC74F89-C2F7-4B86-829C-D17289DEBA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26A45B6-C23B-4E28-8786-67DE941136F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>total abono</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>3 cell battery holder</t>
+  </si>
+  <si>
+    <t>solder fee</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -538,6 +541,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,16 +559,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AH50"/>
+  <dimension ref="B1:AG51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="O12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,13 +888,13 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
@@ -930,17 +932,17 @@
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -1018,14 +1020,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="E14">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
         <v>46</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -1058,7 +1057,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -1078,7 +1077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>48</v>
       </c>
@@ -1089,7 +1088,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19">
         <v>133</v>
       </c>
@@ -1123,17 +1122,8 @@
       <c r="AC19" t="s">
         <v>12</v>
       </c>
-      <c r="AE19" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
       <c r="E20">
         <v>230</v>
       </c>
@@ -1155,19 +1145,19 @@
         <v>-4.2857142857142776</v>
       </c>
       <c r="W20">
-        <f t="shared" ref="W20:W26" si="1">($D$47/7)</f>
-        <v>590</v>
+        <f t="shared" ref="W20:W26" si="1">($D$48/7)</f>
+        <v>604.57142857142856</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20">
         <f t="shared" ref="Y20:Y26" si="2">W20-X20</f>
-        <v>590</v>
+        <v>604.57142857142856</v>
       </c>
       <c r="AA20">
-        <f>U20+Y20</f>
-        <v>585.71428571428578</v>
+        <f>S20+W20</f>
+        <v>800.28571428571422</v>
       </c>
       <c r="AB20">
         <f>T20+X20</f>
@@ -1175,22 +1165,10 @@
       </c>
       <c r="AC20">
         <f>U20+Y20</f>
-        <v>585.71428571428578</v>
-      </c>
-      <c r="AE20">
-        <f>S20+W20</f>
-        <v>785.71428571428578</v>
-      </c>
-      <c r="AF20">
-        <f>T20+X20</f>
-        <v>200</v>
-      </c>
-      <c r="AG20">
-        <f>U20+Y20</f>
-        <v>585.71428571428578</v>
-      </c>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
+        <v>600.28571428571422</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
       <c r="E21">
         <v>195</v>
       </c>
@@ -1214,46 +1192,34 @@
       </c>
       <c r="W21">
         <f t="shared" si="1"/>
-        <v>590</v>
+        <v>604.57142857142856</v>
       </c>
       <c r="X21" s="4">
-        <f>D47</f>
-        <v>4130</v>
+        <f>D48</f>
+        <v>4232</v>
       </c>
       <c r="Y21">
         <f>W21-X21</f>
-        <v>-3540</v>
+        <v>-3627.4285714285716</v>
       </c>
       <c r="AA21">
-        <f>U21+Y21</f>
-        <v>-4234.2857142857138</v>
+        <f>S21+W21</f>
+        <v>800.28571428571422</v>
       </c>
       <c r="AB21">
         <f>T21+X21</f>
-        <v>5020</v>
+        <v>5122</v>
       </c>
       <c r="AC21">
         <f>U21+Y21</f>
-        <v>-4234.2857142857138</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" ref="AE21:AE26" si="3">S21+W21</f>
-        <v>785.71428571428578</v>
-      </c>
-      <c r="AF21">
-        <f t="shared" ref="AF21:AF26" si="4">T21+X21</f>
-        <v>5020</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" ref="AG21:AG26" si="5">U21+Y21</f>
-        <v>-4234.2857142857138</v>
-      </c>
-      <c r="AH21">
-        <f>SUM(AG20:AG26)</f>
-        <v>-985.99999999999909</v>
-      </c>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
+        <v>-4321.7142857142862</v>
+      </c>
+      <c r="AD21">
+        <f>SUM(AC20:AC26)</f>
+        <v>-986.00000000000091</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>42</v>
       </c>
@@ -1274,46 +1240,34 @@
         <v>190</v>
       </c>
       <c r="U22">
-        <f t="shared" ref="U22:U26" si="6">S22-T22</f>
+        <f t="shared" ref="U22:U26" si="3">S22-T22</f>
         <v>5.7142857142857224</v>
       </c>
       <c r="W22">
         <f t="shared" si="1"/>
-        <v>590</v>
+        <v>604.57142857142856</v>
       </c>
       <c r="X22" s="4">
         <v>500</v>
       </c>
       <c r="Y22">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>104.57142857142856</v>
       </c>
       <c r="AA22">
-        <f t="shared" ref="AA22:AA26" si="7">U22+Y22</f>
-        <v>95.714285714285722</v>
+        <f>S22+W22</f>
+        <v>800.28571428571422</v>
       </c>
       <c r="AB22">
-        <f t="shared" ref="AB22:AB26" si="8">T22+X22</f>
+        <f>T22+X22</f>
         <v>690</v>
       </c>
       <c r="AC22">
-        <f t="shared" ref="AC22:AC26" si="9">U22+Y22</f>
-        <v>95.714285714285722</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" si="3"/>
-        <v>785.71428571428578</v>
-      </c>
-      <c r="AF22">
-        <f t="shared" si="4"/>
-        <v>690</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" si="5"/>
-        <v>95.714285714285722</v>
-      </c>
-    </row>
-    <row r="23" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>U22+Y22</f>
+        <v>110.28571428571428</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1337,57 +1291,45 @@
         <v>190</v>
       </c>
       <c r="U23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.7142857142857224</v>
       </c>
       <c r="W23">
         <f t="shared" si="1"/>
-        <v>590</v>
+        <v>604.57142857142856</v>
       </c>
       <c r="X23" s="4">
         <v>0</v>
       </c>
       <c r="Y23">
         <f t="shared" si="2"/>
-        <v>590</v>
+        <v>604.57142857142856</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="7"/>
-        <v>595.71428571428578</v>
+        <f>S23+W23</f>
+        <v>800.28571428571422</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="8"/>
+        <f>T23+X23</f>
         <v>190</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="9"/>
-        <v>595.71428571428578</v>
-      </c>
-      <c r="AE23">
-        <f t="shared" si="3"/>
-        <v>785.71428571428578</v>
-      </c>
-      <c r="AF23">
-        <f t="shared" si="4"/>
-        <v>190</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" si="5"/>
-        <v>595.71428571428578</v>
-      </c>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
+        <f>U23+Y23</f>
+        <v>610.28571428571422</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
       <c r="E24">
         <v>372</v>
       </c>
       <c r="G24" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="M24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="19">
+      <c r="N24" s="15"/>
+      <c r="O24" s="16">
         <v>5</v>
       </c>
       <c r="R24" t="s">
@@ -1401,46 +1343,34 @@
         <v>190</v>
       </c>
       <c r="U24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.7142857142857224</v>
       </c>
       <c r="W24">
         <f t="shared" si="1"/>
-        <v>590</v>
+        <v>604.57142857142856</v>
       </c>
       <c r="X24" s="4">
         <v>0</v>
       </c>
       <c r="Y24">
         <f t="shared" si="2"/>
-        <v>590</v>
+        <v>604.57142857142856</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="7"/>
-        <v>595.71428571428578</v>
+        <f>S24+W24</f>
+        <v>800.28571428571422</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="8"/>
+        <f>T24+X24</f>
         <v>190</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="9"/>
-        <v>595.71428571428578</v>
-      </c>
-      <c r="AE24">
-        <f t="shared" si="3"/>
-        <v>785.71428571428578</v>
-      </c>
-      <c r="AF24">
-        <f t="shared" si="4"/>
-        <v>190</v>
-      </c>
-      <c r="AG24">
-        <f t="shared" si="5"/>
-        <v>595.71428571428578</v>
-      </c>
-    </row>
-    <row r="25" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>U24+Y24</f>
+        <v>610.28571428571422</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>45</v>
       </c>
@@ -1450,11 +1380,10 @@
       <c r="D25">
         <v>55</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="22">
+      <c r="O25" s="18">
         <v>19</v>
       </c>
       <c r="R25" t="s">
@@ -1468,54 +1397,41 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>195.71428571428572</v>
       </c>
       <c r="W25">
         <f t="shared" si="1"/>
-        <v>590</v>
+        <v>604.57142857142856</v>
       </c>
       <c r="X25" s="4">
         <v>0</v>
       </c>
       <c r="Y25">
         <f t="shared" si="2"/>
-        <v>590</v>
+        <v>604.57142857142856</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="7"/>
-        <v>785.71428571428578</v>
+        <f>S25+W25</f>
+        <v>800.28571428571422</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="8"/>
+        <f>T25+X25</f>
         <v>0</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="9"/>
-        <v>785.71428571428578</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" si="3"/>
-        <v>785.71428571428578</v>
-      </c>
-      <c r="AF25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" si="5"/>
-        <v>785.71428571428578</v>
-      </c>
-    </row>
-    <row r="26" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>U25+Y25</f>
+        <v>800.28571428571422</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E26">
         <v>240</v>
       </c>
       <c r="G26" t="s">
         <v>49</v>
       </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
+      <c r="M26" s="17"/>
       <c r="O26" s="12">
         <f>O25+O24</f>
         <v>24</v>
@@ -1532,55 +1448,42 @@
         <v>196</v>
       </c>
       <c r="U26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-0.28571428571427759</v>
       </c>
       <c r="W26">
         <f t="shared" si="1"/>
-        <v>590</v>
+        <v>604.57142857142856</v>
       </c>
       <c r="X26" s="5">
         <v>0</v>
       </c>
       <c r="Y26">
         <f t="shared" si="2"/>
-        <v>590</v>
+        <v>604.57142857142856</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="7"/>
-        <v>589.71428571428578</v>
+        <f>S26+W26</f>
+        <v>800.28571428571422</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="8"/>
+        <f>T26+X26</f>
         <v>196</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="9"/>
-        <v>589.71428571428578</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" si="3"/>
-        <v>785.71428571428578</v>
-      </c>
-      <c r="AF26">
-        <f t="shared" si="4"/>
-        <v>196</v>
-      </c>
-      <c r="AG26">
-        <f t="shared" si="5"/>
-        <v>589.71428571428578</v>
-      </c>
-    </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
+        <f>U26+Y26</f>
+        <v>604.28571428571422</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
       <c r="E27">
         <v>75</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
       </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="22"/>
+      <c r="M27" s="17"/>
+      <c r="O27" s="18"/>
       <c r="S27">
         <f>SUM(S20:S26)</f>
         <v>1370.0000000000002</v>
@@ -1595,23 +1498,22 @@
       </c>
       <c r="W27">
         <f>SUM(W20:W26)</f>
-        <v>4130</v>
-      </c>
-      <c r="AE27">
-        <f>SUM(AE20:AE26)</f>
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
+        <v>4232</v>
+      </c>
+      <c r="AA27">
+        <f>SUM(AA20:AA26)</f>
+        <v>5602</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
       <c r="E28">
         <v>107</v>
       </c>
       <c r="G28" t="s">
         <v>50</v>
       </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="22"/>
+      <c r="M28" s="17"/>
+      <c r="O28" s="18"/>
       <c r="R28" s="10" t="s">
         <v>26</v>
       </c>
@@ -1624,22 +1526,18 @@
       <c r="V28" s="10"/>
       <c r="W28" s="10">
         <f>X21</f>
-        <v>4130</v>
+        <v>4232</v>
       </c>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
+      <c r="AA28" s="10">
+        <f>AB21</f>
+        <v>5122</v>
+      </c>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10">
-        <f>AF21</f>
-        <v>5020</v>
-      </c>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-    </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D29">
         <v>0</v>
       </c>
@@ -1655,11 +1553,10 @@
         <f>169*3+19-7.5</f>
         <v>518.5</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="M29" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="N29" s="21"/>
-      <c r="O29" s="22">
+      <c r="O29" s="18">
         <f>169*3</f>
         <v>507</v>
       </c>
@@ -1672,25 +1569,24 @@
       </c>
       <c r="W29">
         <f>W27-(W28-W21)</f>
-        <v>590</v>
-      </c>
-      <c r="AE29">
-        <f>AE27-(AE28-AE21)</f>
-        <v>1265.7142857142862</v>
-      </c>
-    </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
+        <v>604.57142857142844</v>
+      </c>
+      <c r="AA29">
+        <f>AA27-(AA28-AA21)</f>
+        <v>1280.2857142857138</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
       <c r="E30">
         <v>114</v>
       </c>
       <c r="G30" t="s">
         <v>52</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="M30" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="N30" s="21"/>
-      <c r="O30" s="22">
+      <c r="O30" s="18">
         <v>19</v>
       </c>
       <c r="R30" t="s">
@@ -1702,37 +1598,35 @@
       </c>
       <c r="W30">
         <f>W29/6</f>
-        <v>98.333333333333329</v>
-      </c>
-      <c r="AE30">
-        <f>AE29/6</f>
-        <v>210.95238095238105</v>
-      </c>
-    </row>
-    <row r="31" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100.76190476190474</v>
+      </c>
+      <c r="AA30">
+        <f>AA29/6</f>
+        <v>213.38095238095229</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31">
         <v>108</v>
       </c>
       <c r="G31" t="s">
         <v>53</v>
       </c>
-      <c r="M31" s="20" t="s">
+      <c r="M31" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N31" s="21"/>
-      <c r="O31" s="22">
+      <c r="O31" s="18">
         <v>-7.5</v>
       </c>
     </row>
-    <row r="32" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E32">
         <v>106</v>
       </c>
       <c r="G32" t="s">
         <v>54</v>
       </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="21"/>
+      <c r="M32" s="17"/>
       <c r="O32" s="12">
         <f>169*3+19-7.5</f>
         <v>518.5</v>
@@ -1746,9 +1640,8 @@
       <c r="G33" t="s">
         <v>49</v>
       </c>
-      <c r="M33" s="20"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="22"/>
+      <c r="M33" s="17"/>
+      <c r="O33" s="18"/>
       <c r="R33" t="s">
         <v>3</v>
       </c>
@@ -1770,11 +1663,10 @@
         <f>468+20</f>
         <v>488</v>
       </c>
-      <c r="M34" s="20" t="s">
+      <c r="M34" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="N34" s="21"/>
-      <c r="O34" s="22">
+      <c r="O34" s="18">
         <f>169*3</f>
         <v>507</v>
       </c>
@@ -1786,11 +1678,10 @@
       <c r="G35" t="s">
         <v>56</v>
       </c>
-      <c r="M35" s="20" t="s">
+      <c r="M35" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N35" s="21"/>
-      <c r="O35" s="22">
+      <c r="O35" s="18">
         <v>38</v>
       </c>
       <c r="S35" t="s">
@@ -1848,18 +1739,17 @@
       <c r="G36" t="s">
         <v>57</v>
       </c>
-      <c r="M36" s="20" t="s">
+      <c r="M36" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="N36" s="21"/>
-      <c r="O36" s="22">
+      <c r="O36" s="18">
         <v>69</v>
       </c>
       <c r="R36" t="s">
         <v>5</v>
       </c>
       <c r="S36">
-        <f t="shared" ref="S36:S42" si="10">(G$4/7)</f>
+        <f t="shared" ref="S36:S42" si="4">(G$4/7)</f>
         <v>195.71428571428572</v>
       </c>
       <c r="T36" s="3">
@@ -1870,19 +1760,19 @@
         <v>0.71428571428572241</v>
       </c>
       <c r="W36">
-        <f t="shared" ref="W36:W42" si="11">($D$47/7)</f>
-        <v>590</v>
+        <f t="shared" ref="W36:W42" si="5">($D$48/7)</f>
+        <v>604.57142857142856</v>
       </c>
       <c r="X36" s="3">
         <v>593</v>
       </c>
       <c r="Y36">
-        <f t="shared" ref="Y36" si="12">W36-X36</f>
-        <v>-3</v>
+        <f t="shared" ref="Y36" si="6">W36-X36</f>
+        <v>11.571428571428555</v>
       </c>
       <c r="AA36">
         <f>U36+Y36</f>
-        <v>-2.2857142857142776</v>
+        <v>12.285714285714278</v>
       </c>
       <c r="AB36">
         <f>T36+X36</f>
@@ -1890,11 +1780,11 @@
       </c>
       <c r="AC36">
         <f>U36+Y36</f>
-        <v>-2.2857142857142776</v>
+        <v>12.285714285714278</v>
       </c>
       <c r="AE36">
         <f>S36+W36</f>
-        <v>785.71428571428578</v>
+        <v>800.28571428571422</v>
       </c>
       <c r="AF36">
         <f>T36+X36</f>
@@ -1902,7 +1792,7 @@
       </c>
       <c r="AG36">
         <f>U36+Y36</f>
-        <v>-2.2857142857142776</v>
+        <v>12.285714285714278</v>
       </c>
     </row>
     <row r="37" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1916,8 +1806,7 @@
         <f>614</f>
         <v>614</v>
       </c>
-      <c r="M37" s="20"/>
-      <c r="N37" s="21"/>
+      <c r="M37" s="17"/>
       <c r="O37" s="12">
         <f>O34+O35+O36</f>
         <v>614</v>
@@ -1926,7 +1815,7 @@
         <v>6</v>
       </c>
       <c r="S37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>195.71428571428572</v>
       </c>
       <c r="T37" s="4">
@@ -1938,19 +1827,19 @@
         <v>-694.28571428571422</v>
       </c>
       <c r="W37">
-        <f t="shared" si="11"/>
-        <v>590</v>
+        <f t="shared" si="5"/>
+        <v>604.57142857142856</v>
       </c>
       <c r="X37" s="4">
         <v>4283</v>
       </c>
       <c r="Y37">
         <f>W37-X37</f>
-        <v>-3693</v>
+        <v>-3678.4285714285716</v>
       </c>
       <c r="AA37">
         <f>U37+Y37</f>
-        <v>-4387.2857142857138</v>
+        <v>-4372.7142857142862</v>
       </c>
       <c r="AB37">
         <f>T37+X37</f>
@@ -1958,19 +1847,19 @@
       </c>
       <c r="AC37">
         <f>U37+Y37</f>
-        <v>-4387.2857142857138</v>
+        <v>-4372.7142857142862</v>
       </c>
       <c r="AE37">
-        <f t="shared" ref="AE37:AE42" si="13">S37+W37</f>
-        <v>785.71428571428578</v>
+        <f t="shared" ref="AE37:AE42" si="7">S37+W37</f>
+        <v>800.28571428571422</v>
       </c>
       <c r="AF37">
-        <f t="shared" ref="AF37:AF42" si="14">T37+X37</f>
+        <f t="shared" ref="AF37:AF42" si="8">T37+X37</f>
         <v>5173</v>
       </c>
       <c r="AG37">
-        <f t="shared" ref="AG37:AG42" si="15">U37+Y37</f>
-        <v>-4387.2857142857138</v>
+        <f t="shared" ref="AG37:AG42" si="9">U37+Y37</f>
+        <v>-4372.7142857142862</v>
       </c>
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.3">
@@ -1984,57 +1873,56 @@
         <f>272-166-19</f>
         <v>87</v>
       </c>
-      <c r="M38" s="20"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="22"/>
+      <c r="M38" s="17"/>
+      <c r="O38" s="18"/>
       <c r="R38" t="s">
         <v>7</v>
       </c>
       <c r="S38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>195.71428571428572</v>
       </c>
       <c r="T38" s="4">
         <v>195</v>
       </c>
       <c r="U38">
-        <f t="shared" ref="U38:U42" si="16">S38-T38</f>
+        <f t="shared" ref="U38:U42" si="10">S38-T38</f>
         <v>0.71428571428572241</v>
       </c>
       <c r="W38">
-        <f t="shared" si="11"/>
-        <v>590</v>
+        <f t="shared" si="5"/>
+        <v>604.57142857142856</v>
       </c>
       <c r="X38" s="4">
         <v>593</v>
       </c>
       <c r="Y38">
-        <f t="shared" ref="Y38:Y42" si="17">W38-X38</f>
-        <v>-3</v>
+        <f t="shared" ref="Y38:Y42" si="11">W38-X38</f>
+        <v>11.571428571428555</v>
       </c>
       <c r="AA38">
-        <f t="shared" ref="AA38:AA42" si="18">U38+Y38</f>
-        <v>-2.2857142857142776</v>
+        <f t="shared" ref="AA38:AA42" si="12">U38+Y38</f>
+        <v>12.285714285714278</v>
       </c>
       <c r="AB38">
-        <f t="shared" ref="AB38:AB42" si="19">T38+X38</f>
+        <f t="shared" ref="AB38:AB42" si="13">T38+X38</f>
         <v>788</v>
       </c>
       <c r="AC38">
-        <f t="shared" ref="AC38:AC42" si="20">U38+Y38</f>
-        <v>-2.2857142857142776</v>
+        <f t="shared" ref="AC38:AC42" si="14">U38+Y38</f>
+        <v>12.285714285714278</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="13"/>
-        <v>785.71428571428578</v>
+        <f t="shared" si="7"/>
+        <v>800.28571428571422</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>788</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="15"/>
-        <v>-2.2857142857142776</v>
+        <f t="shared" si="9"/>
+        <v>12.285714285714278</v>
       </c>
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.3">
@@ -2047,57 +1935,56 @@
       <c r="D39">
         <v>102</v>
       </c>
-      <c r="M39" s="20"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="22"/>
+      <c r="M39" s="17"/>
+      <c r="O39" s="18"/>
       <c r="R39" t="s">
         <v>24</v>
       </c>
       <c r="S39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>195.71428571428572</v>
       </c>
       <c r="T39" s="4">
         <v>195</v>
       </c>
       <c r="U39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.71428571428572241</v>
       </c>
       <c r="W39">
-        <f t="shared" si="11"/>
-        <v>590</v>
+        <f t="shared" si="5"/>
+        <v>604.57142857142856</v>
       </c>
       <c r="X39" s="4">
         <v>593</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="17"/>
-        <v>-3</v>
+        <f t="shared" si="11"/>
+        <v>11.571428571428555</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="18"/>
-        <v>-2.2857142857142776</v>
+        <f t="shared" si="12"/>
+        <v>12.285714285714278</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>788</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="20"/>
-        <v>-2.2857142857142776</v>
+        <f t="shared" si="14"/>
+        <v>12.285714285714278</v>
       </c>
       <c r="AE39">
-        <f t="shared" si="13"/>
-        <v>785.71428571428578</v>
+        <f t="shared" si="7"/>
+        <v>800.28571428571422</v>
       </c>
       <c r="AF39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>788</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="15"/>
-        <v>-2.2857142857142776</v>
+        <f t="shared" si="9"/>
+        <v>12.285714285714278</v>
       </c>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.3">
@@ -2110,61 +1997,60 @@
       <c r="D40">
         <v>108</v>
       </c>
-      <c r="M40" s="20" t="s">
+      <c r="M40" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="N40" s="21"/>
-      <c r="O40" s="22">
+      <c r="O40" s="18">
         <v>68</v>
       </c>
       <c r="R40" t="s">
         <v>8</v>
       </c>
       <c r="S40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>195.71428571428572</v>
       </c>
       <c r="T40" s="4">
         <v>195</v>
       </c>
       <c r="U40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.71428571428572241</v>
       </c>
       <c r="W40">
-        <f t="shared" si="11"/>
-        <v>590</v>
+        <f t="shared" si="5"/>
+        <v>604.57142857142856</v>
       </c>
       <c r="X40" s="4">
         <v>593</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="17"/>
-        <v>-3</v>
+        <f t="shared" si="11"/>
+        <v>11.571428571428555</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="18"/>
-        <v>-2.2857142857142776</v>
+        <f t="shared" si="12"/>
+        <v>12.285714285714278</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>788</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="20"/>
-        <v>-2.2857142857142776</v>
+        <f t="shared" si="14"/>
+        <v>12.285714285714278</v>
       </c>
       <c r="AE40">
-        <f t="shared" si="13"/>
-        <v>785.71428571428578</v>
+        <f t="shared" si="7"/>
+        <v>800.28571428571422</v>
       </c>
       <c r="AF40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>788</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="15"/>
-        <v>-2.2857142857142776</v>
+        <f t="shared" si="9"/>
+        <v>12.285714285714278</v>
       </c>
     </row>
     <row r="41" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2174,61 +2060,60 @@
       <c r="G41" t="s">
         <v>61</v>
       </c>
-      <c r="M41" s="20" t="s">
+      <c r="M41" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N41" s="21"/>
-      <c r="O41" s="22">
+      <c r="O41" s="18">
         <v>19</v>
       </c>
       <c r="R41" t="s">
         <v>9</v>
       </c>
       <c r="S41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>195.71428571428572</v>
       </c>
       <c r="T41" s="4">
         <v>195</v>
       </c>
       <c r="U41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.71428571428572241</v>
       </c>
       <c r="W41">
-        <f t="shared" si="11"/>
-        <v>590</v>
+        <f t="shared" si="5"/>
+        <v>604.57142857142856</v>
       </c>
       <c r="X41" s="4">
         <v>593</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="17"/>
-        <v>-3</v>
+        <f t="shared" si="11"/>
+        <v>11.571428571428555</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="18"/>
-        <v>-2.2857142857142776</v>
+        <f t="shared" si="12"/>
+        <v>12.285714285714278</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>788</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="20"/>
-        <v>-2.2857142857142776</v>
+        <f t="shared" si="14"/>
+        <v>12.285714285714278</v>
       </c>
       <c r="AE41">
-        <f t="shared" si="13"/>
-        <v>785.71428571428578</v>
+        <f t="shared" si="7"/>
+        <v>800.28571428571422</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>788</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="15"/>
-        <v>-2.2857142857142776</v>
+        <f t="shared" si="9"/>
+        <v>12.285714285714278</v>
       </c>
     </row>
     <row r="42" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2238,8 +2123,7 @@
       <c r="G42" t="s">
         <v>62</v>
       </c>
-      <c r="M42" s="20"/>
-      <c r="N42" s="21"/>
+      <c r="M42" s="17"/>
       <c r="O42" s="12">
         <f>SUM(O40:O41)</f>
         <v>87</v>
@@ -2248,50 +2132,50 @@
         <v>10</v>
       </c>
       <c r="S42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>195.71428571428572</v>
       </c>
       <c r="T42" s="5">
         <v>196</v>
       </c>
       <c r="U42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>-0.28571428571427759</v>
       </c>
       <c r="W42">
-        <f t="shared" si="11"/>
-        <v>590</v>
+        <f t="shared" si="5"/>
+        <v>604.57142857142856</v>
       </c>
       <c r="X42" s="5">
         <v>593</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="17"/>
-        <v>-3</v>
+        <f t="shared" si="11"/>
+        <v>11.571428571428555</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="18"/>
-        <v>-3.2857142857142776</v>
+        <f t="shared" si="12"/>
+        <v>11.285714285714278</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>789</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="20"/>
-        <v>-3.2857142857142776</v>
+        <f t="shared" si="14"/>
+        <v>11.285714285714278</v>
       </c>
       <c r="AE42">
-        <f t="shared" si="13"/>
-        <v>785.71428571428578</v>
+        <f t="shared" si="7"/>
+        <v>800.28571428571422</v>
       </c>
       <c r="AF42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>789</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="15"/>
-        <v>-3.2857142857142776</v>
+        <f t="shared" si="9"/>
+        <v>11.285714285714278</v>
       </c>
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.3">
@@ -2301,15 +2185,14 @@
       <c r="G43" t="s">
         <v>63</v>
       </c>
-      <c r="M43" s="20"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="22"/>
+      <c r="M43" s="17"/>
+      <c r="O43" s="18"/>
       <c r="AD43" t="s">
         <v>4</v>
       </c>
       <c r="AE43">
         <f>SUM(AE36:AE42)</f>
-        <v>5500</v>
+        <v>5602</v>
       </c>
       <c r="AF43">
         <f>SUM(AF36:AF42)</f>
@@ -2317,7 +2200,7 @@
       </c>
       <c r="AG43">
         <f>SUM(AG36:AG42)</f>
-        <v>-4402.0000000000018</v>
+        <v>-4299.9999999999982</v>
       </c>
     </row>
     <row r="44" spans="2:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -2327,10 +2210,18 @@
       <c r="G44" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="20"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="23" t="s">
+      <c r="M44" s="17"/>
+      <c r="O44" s="19" t="s">
         <v>19</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="2:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -2340,12 +2231,23 @@
       <c r="G45" t="s">
         <v>64</v>
       </c>
-      <c r="M45" s="20"/>
-      <c r="N45" s="21"/>
+      <c r="M45" s="17"/>
       <c r="O45" s="13">
         <f>SUM(O42)+O37+O32+O26</f>
         <v>1243.5</v>
       </c>
+      <c r="AA45">
+        <f>U20+Y20</f>
+        <v>600.28571428571422</v>
+      </c>
+      <c r="AB45">
+        <f>T20+X20</f>
+        <v>200</v>
+      </c>
+      <c r="AC45">
+        <f>U20+Y20</f>
+        <v>600.28571428571422</v>
+      </c>
     </row>
     <row r="46" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E46">
@@ -2354,52 +2256,132 @@
       <c r="G46" t="s">
         <v>65</v>
       </c>
-      <c r="M46" s="24"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="26"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="22"/>
+      <c r="AA46">
+        <f>U21+Y21</f>
+        <v>-4321.7142857142862</v>
+      </c>
+      <c r="AB46">
+        <f>T21+X21</f>
+        <v>5122</v>
+      </c>
+      <c r="AC46">
+        <f>U21+Y21</f>
+        <v>-4321.7142857142862</v>
+      </c>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="D47" s="1">
-        <f>SUM(D8:D45)</f>
-        <v>4130</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47">
+        <v>150</v>
+      </c>
+      <c r="AA47">
+        <f>U22+Y22</f>
+        <v>110.28571428571428</v>
+      </c>
+      <c r="AB47">
+        <f>T22+X22</f>
+        <v>690</v>
+      </c>
+      <c r="AC47">
+        <f>U22+Y22</f>
+        <v>110.28571428571428</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="D48" s="1">
+        <f>SUM(D8:D47)</f>
+        <v>4232</v>
+      </c>
+      <c r="E48" s="1">
         <f>SUM(E8:E46)</f>
-        <v>2975.5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="D48" s="1" t="s">
+        <v>3023.5</v>
+      </c>
+      <c r="AA48">
+        <f>U23+Y23</f>
+        <v>610.28571428571422</v>
+      </c>
+      <c r="AB48">
+        <f>T23+X23</f>
+        <v>190</v>
+      </c>
+      <c r="AC48">
+        <f>U23+Y23</f>
+        <v>610.28571428571422</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G49" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="6" t="s">
+      <c r="AA49">
+        <f>U24+Y24</f>
+        <v>610.28571428571422</v>
+      </c>
+      <c r="AB49">
+        <f>T24+X24</f>
+        <v>190</v>
+      </c>
+      <c r="AC49">
+        <f>U24+Y24</f>
+        <v>610.28571428571422</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="7">
-        <f>SUM(D5:E46)</f>
-        <v>7995.5</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="G49">
-        <f>(D50)/7</f>
-        <v>785.71428571428567</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="7">
+        <f>SUM(D5:E47)</f>
+        <v>8145.5</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="G50">
+        <f>(D51)/7</f>
+        <v>800.28571428571433</v>
+      </c>
+      <c r="AA50">
+        <f>U25+Y25</f>
+        <v>800.28571428571422</v>
+      </c>
+      <c r="AB50">
+        <f>T25+X25</f>
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <f>U25+Y25</f>
+        <v>800.28571428571422</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="9">
-        <f>D47+G4</f>
-        <v>5500</v>
+      <c r="D51" s="9">
+        <f>D48+G4</f>
+        <v>5602</v>
+      </c>
+      <c r="AA51">
+        <f>U26+Y26</f>
+        <v>604.28571428571422</v>
+      </c>
+      <c r="AB51">
+        <f>T26+X26</f>
+        <v>196</v>
+      </c>
+      <c r="AC51">
+        <f>U26+Y26</f>
+        <v>604.28571428571422</v>
       </c>
     </row>
   </sheetData>

--- a/Documentations/bayad 1.xlsx
+++ b/Documentations/bayad 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\school\2ndyr\1stsem\emag\generotr\Documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26A45B6-C23B-4E28-8786-67DE941136F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9A40AD-38FB-47BE-A2DC-7660C99972F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>total abono</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>solder fee</t>
+  </si>
+  <si>
+    <t>battery (169)</t>
   </si>
 </sst>
 </file>
@@ -875,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA30" sqref="AA30"/>
+    <sheetView tabSelected="1" topLeftCell="K13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,23 +1152,23 @@
         <v>604.57142857142856</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="Y20">
         <f t="shared" ref="Y20:Y26" si="2">W20-X20</f>
-        <v>604.57142857142856</v>
+        <v>-0.42857142857144481</v>
       </c>
       <c r="AA20">
-        <f>S20+W20</f>
+        <f t="shared" ref="AA20:AC26" si="3">S20+W20</f>
         <v>800.28571428571422</v>
       </c>
       <c r="AB20">
-        <f>T20+X20</f>
-        <v>200</v>
+        <f t="shared" si="3"/>
+        <v>805</v>
       </c>
       <c r="AC20">
-        <f>U20+Y20</f>
-        <v>600.28571428571422</v>
+        <f t="shared" si="3"/>
+        <v>-4.7142857142857224</v>
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.3">
@@ -1203,20 +1206,20 @@
         <v>-3627.4285714285716</v>
       </c>
       <c r="AA21">
-        <f>S21+W21</f>
+        <f t="shared" si="3"/>
         <v>800.28571428571422</v>
       </c>
       <c r="AB21">
-        <f>T21+X21</f>
+        <f t="shared" si="3"/>
         <v>5122</v>
       </c>
       <c r="AC21">
-        <f>U21+Y21</f>
+        <f t="shared" si="3"/>
         <v>-4321.7142857142862</v>
       </c>
       <c r="AD21">
         <f>SUM(AC20:AC26)</f>
-        <v>-986.00000000000091</v>
+        <v>-3095</v>
       </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.3">
@@ -1240,7 +1243,7 @@
         <v>190</v>
       </c>
       <c r="U22">
-        <f t="shared" ref="U22:U26" si="3">S22-T22</f>
+        <f t="shared" ref="U22:U26" si="4">S22-T22</f>
         <v>5.7142857142857224</v>
       </c>
       <c r="W22">
@@ -1255,15 +1258,15 @@
         <v>104.57142857142856</v>
       </c>
       <c r="AA22">
-        <f>S22+W22</f>
+        <f t="shared" si="3"/>
         <v>800.28571428571422</v>
       </c>
       <c r="AB22">
-        <f>T22+X22</f>
+        <f t="shared" si="3"/>
         <v>690</v>
       </c>
       <c r="AC22">
-        <f>U22+Y22</f>
+        <f t="shared" si="3"/>
         <v>110.28571428571428</v>
       </c>
     </row>
@@ -1291,7 +1294,7 @@
         <v>190</v>
       </c>
       <c r="U23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7142857142857224</v>
       </c>
       <c r="W23">
@@ -1306,15 +1309,15 @@
         <v>604.57142857142856</v>
       </c>
       <c r="AA23">
-        <f>S23+W23</f>
+        <f t="shared" si="3"/>
         <v>800.28571428571422</v>
       </c>
       <c r="AB23">
-        <f>T23+X23</f>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="AC23">
-        <f>U23+Y23</f>
+        <f t="shared" si="3"/>
         <v>610.28571428571422</v>
       </c>
     </row>
@@ -1343,7 +1346,7 @@
         <v>190</v>
       </c>
       <c r="U24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7142857142857224</v>
       </c>
       <c r="W24">
@@ -1358,15 +1361,15 @@
         <v>604.57142857142856</v>
       </c>
       <c r="AA24">
-        <f>S24+W24</f>
+        <f t="shared" si="3"/>
         <v>800.28571428571422</v>
       </c>
       <c r="AB24">
-        <f>T24+X24</f>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="AC24">
-        <f>U24+Y24</f>
+        <f t="shared" si="3"/>
         <v>610.28571428571422</v>
       </c>
     </row>
@@ -1397,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>195.71428571428572</v>
       </c>
       <c r="W25">
@@ -1405,23 +1408,23 @@
         <v>604.57142857142856</v>
       </c>
       <c r="X25" s="4">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="Y25">
         <f t="shared" si="2"/>
-        <v>604.57142857142856</v>
+        <v>-195.42857142857144</v>
       </c>
       <c r="AA25">
-        <f>S25+W25</f>
+        <f t="shared" si="3"/>
         <v>800.28571428571422</v>
       </c>
       <c r="AB25">
-        <f>T25+X25</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>800</v>
       </c>
       <c r="AC25">
-        <f>U25+Y25</f>
-        <v>800.28571428571422</v>
+        <f t="shared" si="3"/>
+        <v>0.28571428571427759</v>
       </c>
     </row>
     <row r="26" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1448,7 +1451,7 @@
         <v>196</v>
       </c>
       <c r="U26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.28571428571427759</v>
       </c>
       <c r="W26">
@@ -1456,23 +1459,24 @@
         <v>604.57142857142856</v>
       </c>
       <c r="X26" s="5">
-        <v>0</v>
+        <f>600+100+4</f>
+        <v>704</v>
       </c>
       <c r="Y26">
         <f t="shared" si="2"/>
-        <v>604.57142857142856</v>
+        <v>-99.428571428571445</v>
       </c>
       <c r="AA26">
-        <f>S26+W26</f>
+        <f t="shared" si="3"/>
         <v>800.28571428571422</v>
       </c>
       <c r="AB26">
-        <f>T26+X26</f>
-        <v>196</v>
+        <f t="shared" si="3"/>
+        <v>900</v>
       </c>
       <c r="AC26">
-        <f>U26+Y26</f>
-        <v>604.28571428571422</v>
+        <f t="shared" si="3"/>
+        <v>-99.714285714285722</v>
       </c>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.3">
@@ -1749,7 +1753,7 @@
         <v>5</v>
       </c>
       <c r="S36">
-        <f t="shared" ref="S36:S42" si="4">(G$4/7)</f>
+        <f t="shared" ref="S36:S42" si="5">(G$4/7)</f>
         <v>195.71428571428572</v>
       </c>
       <c r="T36" s="3">
@@ -1760,14 +1764,14 @@
         <v>0.71428571428572241</v>
       </c>
       <c r="W36">
-        <f t="shared" ref="W36:W42" si="5">($D$48/7)</f>
+        <f t="shared" ref="W36:W42" si="6">($D$48/7)</f>
         <v>604.57142857142856</v>
       </c>
       <c r="X36" s="3">
         <v>593</v>
       </c>
       <c r="Y36">
-        <f t="shared" ref="Y36" si="6">W36-X36</f>
+        <f t="shared" ref="Y36" si="7">W36-X36</f>
         <v>11.571428571428555</v>
       </c>
       <c r="AA36">
@@ -1815,7 +1819,7 @@
         <v>6</v>
       </c>
       <c r="S37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>195.71428571428572</v>
       </c>
       <c r="T37" s="4">
@@ -1827,7 +1831,7 @@
         <v>-694.28571428571422</v>
       </c>
       <c r="W37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>604.57142857142856</v>
       </c>
       <c r="X37" s="4">
@@ -1850,15 +1854,15 @@
         <v>-4372.7142857142862</v>
       </c>
       <c r="AE37">
-        <f t="shared" ref="AE37:AE42" si="7">S37+W37</f>
+        <f t="shared" ref="AE37:AE42" si="8">S37+W37</f>
         <v>800.28571428571422</v>
       </c>
       <c r="AF37">
-        <f t="shared" ref="AF37:AF42" si="8">T37+X37</f>
+        <f t="shared" ref="AF37:AF42" si="9">T37+X37</f>
         <v>5173</v>
       </c>
       <c r="AG37">
-        <f t="shared" ref="AG37:AG42" si="9">U37+Y37</f>
+        <f t="shared" ref="AG37:AG42" si="10">U37+Y37</f>
         <v>-4372.7142857142862</v>
       </c>
     </row>
@@ -1879,49 +1883,49 @@
         <v>7</v>
       </c>
       <c r="S38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>195.71428571428572</v>
       </c>
       <c r="T38" s="4">
         <v>195</v>
       </c>
       <c r="U38">
-        <f t="shared" ref="U38:U42" si="10">S38-T38</f>
+        <f t="shared" ref="U38:U42" si="11">S38-T38</f>
         <v>0.71428571428572241</v>
       </c>
       <c r="W38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>604.57142857142856</v>
       </c>
       <c r="X38" s="4">
         <v>593</v>
       </c>
       <c r="Y38">
-        <f t="shared" ref="Y38:Y42" si="11">W38-X38</f>
+        <f t="shared" ref="Y38:Y42" si="12">W38-X38</f>
         <v>11.571428571428555</v>
       </c>
       <c r="AA38">
-        <f t="shared" ref="AA38:AA42" si="12">U38+Y38</f>
+        <f t="shared" ref="AA38:AA42" si="13">U38+Y38</f>
         <v>12.285714285714278</v>
       </c>
       <c r="AB38">
-        <f t="shared" ref="AB38:AB42" si="13">T38+X38</f>
+        <f t="shared" ref="AB38:AB42" si="14">T38+X38</f>
         <v>788</v>
       </c>
       <c r="AC38">
-        <f t="shared" ref="AC38:AC42" si="14">U38+Y38</f>
+        <f t="shared" ref="AC38:AC42" si="15">U38+Y38</f>
         <v>12.285714285714278</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>800.28571428571422</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>788</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.285714285714278</v>
       </c>
     </row>
@@ -1935,55 +1939,59 @@
       <c r="D39">
         <v>102</v>
       </c>
-      <c r="M39" s="17"/>
-      <c r="O39" s="18"/>
+      <c r="M39" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O39" s="18">
+        <v>169</v>
+      </c>
       <c r="R39" t="s">
         <v>24</v>
       </c>
       <c r="S39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>195.71428571428572</v>
       </c>
       <c r="T39" s="4">
         <v>195</v>
       </c>
       <c r="U39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.71428571428572241</v>
       </c>
       <c r="W39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>604.57142857142856</v>
       </c>
       <c r="X39" s="4">
         <v>593</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.571428571428555</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12.285714285714278</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>788</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.285714285714278</v>
       </c>
       <c r="AE39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>800.28571428571422</v>
       </c>
       <c r="AF39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>788</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.285714285714278</v>
       </c>
     </row>
@@ -2007,49 +2015,49 @@
         <v>8</v>
       </c>
       <c r="S40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>195.71428571428572</v>
       </c>
       <c r="T40" s="4">
         <v>195</v>
       </c>
       <c r="U40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.71428571428572241</v>
       </c>
       <c r="W40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>604.57142857142856</v>
       </c>
       <c r="X40" s="4">
         <v>593</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.571428571428555</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12.285714285714278</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>788</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.285714285714278</v>
       </c>
       <c r="AE40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>800.28571428571422</v>
       </c>
       <c r="AF40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>788</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.285714285714278</v>
       </c>
     </row>
@@ -2064,55 +2072,55 @@
         <v>69</v>
       </c>
       <c r="O41" s="18">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="R41" t="s">
         <v>9</v>
       </c>
       <c r="S41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>195.71428571428572</v>
       </c>
       <c r="T41" s="4">
         <v>195</v>
       </c>
       <c r="U41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.71428571428572241</v>
       </c>
       <c r="W41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>604.57142857142856</v>
       </c>
       <c r="X41" s="4">
         <v>593</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.571428571428555</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12.285714285714278</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>788</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.285714285714278</v>
       </c>
       <c r="AE41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>800.28571428571422</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>788</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.285714285714278</v>
       </c>
     </row>
@@ -2125,56 +2133,56 @@
       </c>
       <c r="M42" s="17"/>
       <c r="O42" s="12">
-        <f>SUM(O40:O41)</f>
-        <v>87</v>
+        <f>SUM(O39:O41)</f>
+        <v>275</v>
       </c>
       <c r="R42" t="s">
         <v>10</v>
       </c>
       <c r="S42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>195.71428571428572</v>
       </c>
       <c r="T42" s="5">
         <v>196</v>
       </c>
       <c r="U42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.28571428571427759</v>
       </c>
       <c r="W42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>604.57142857142856</v>
       </c>
       <c r="X42" s="5">
         <v>593</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.571428571428555</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.285714285714278</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>789</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.285714285714278</v>
       </c>
       <c r="AE42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>800.28571428571422</v>
       </c>
       <c r="AF42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>789</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.285714285714278</v>
       </c>
     </row>
@@ -2234,19 +2242,19 @@
       <c r="M45" s="17"/>
       <c r="O45" s="13">
         <f>SUM(O42)+O37+O32+O26</f>
-        <v>1243.5</v>
+        <v>1431.5</v>
       </c>
       <c r="AA45">
-        <f>U20+Y20</f>
-        <v>600.28571428571422</v>
+        <f t="shared" ref="AA45:AA51" si="16">U20+Y20</f>
+        <v>-4.7142857142857224</v>
       </c>
       <c r="AB45">
-        <f>T20+X20</f>
-        <v>200</v>
+        <f t="shared" ref="AB45:AC51" si="17">T20+X20</f>
+        <v>805</v>
       </c>
       <c r="AC45">
-        <f>U20+Y20</f>
-        <v>600.28571428571422</v>
+        <f t="shared" si="17"/>
+        <v>-4.7142857142857224</v>
       </c>
     </row>
     <row r="46" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2260,15 +2268,15 @@
       <c r="N46" s="21"/>
       <c r="O46" s="22"/>
       <c r="AA46">
-        <f>U21+Y21</f>
+        <f t="shared" si="16"/>
         <v>-4321.7142857142862</v>
       </c>
       <c r="AB46">
-        <f>T21+X21</f>
+        <f t="shared" si="17"/>
         <v>5122</v>
       </c>
       <c r="AC46">
-        <f>U21+Y21</f>
+        <f t="shared" si="17"/>
         <v>-4321.7142857142862</v>
       </c>
     </row>
@@ -2280,15 +2288,15 @@
         <v>150</v>
       </c>
       <c r="AA47">
-        <f>U22+Y22</f>
+        <f t="shared" si="16"/>
         <v>110.28571428571428</v>
       </c>
       <c r="AB47">
-        <f>T22+X22</f>
+        <f t="shared" si="17"/>
         <v>690</v>
       </c>
       <c r="AC47">
-        <f>U22+Y22</f>
+        <f t="shared" si="17"/>
         <v>110.28571428571428</v>
       </c>
     </row>
@@ -2302,15 +2310,15 @@
         <v>3023.5</v>
       </c>
       <c r="AA48">
-        <f>U23+Y23</f>
+        <f t="shared" si="16"/>
         <v>610.28571428571422</v>
       </c>
       <c r="AB48">
-        <f>T23+X23</f>
+        <f t="shared" si="17"/>
         <v>190</v>
       </c>
       <c r="AC48">
-        <f>U23+Y23</f>
+        <f t="shared" si="17"/>
         <v>610.28571428571422</v>
       </c>
     </row>
@@ -2325,15 +2333,15 @@
         <v>20</v>
       </c>
       <c r="AA49">
-        <f>U24+Y24</f>
+        <f t="shared" si="16"/>
         <v>610.28571428571422</v>
       </c>
       <c r="AB49">
-        <f>T24+X24</f>
+        <f t="shared" si="17"/>
         <v>190</v>
       </c>
       <c r="AC49">
-        <f>U24+Y24</f>
+        <f t="shared" si="17"/>
         <v>610.28571428571422</v>
       </c>
     </row>
@@ -2351,16 +2359,16 @@
         <v>800.28571428571433</v>
       </c>
       <c r="AA50">
-        <f>U25+Y25</f>
-        <v>800.28571428571422</v>
+        <f t="shared" si="16"/>
+        <v>0.28571428571427759</v>
       </c>
       <c r="AB50">
-        <f>T25+X25</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>800</v>
       </c>
       <c r="AC50">
-        <f>U25+Y25</f>
-        <v>800.28571428571422</v>
+        <f t="shared" si="17"/>
+        <v>0.28571428571427759</v>
       </c>
     </row>
     <row r="51" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2372,16 +2380,16 @@
         <v>5602</v>
       </c>
       <c r="AA51">
-        <f>U26+Y26</f>
-        <v>604.28571428571422</v>
+        <f t="shared" si="16"/>
+        <v>-99.714285714285722</v>
       </c>
       <c r="AB51">
-        <f>T26+X26</f>
-        <v>196</v>
+        <f t="shared" si="17"/>
+        <v>900</v>
       </c>
       <c r="AC51">
-        <f>U26+Y26</f>
-        <v>604.28571428571422</v>
+        <f t="shared" si="17"/>
+        <v>-99.714285714285722</v>
       </c>
     </row>
   </sheetData>
